--- a/data/landings/cdfw/public/fish_bulletins/raw/fb173/raw/Table14.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb173/raw/Table14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb173/pdfs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb173/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AE1AB906-5BB7-7640-8421-A741106516AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E14AD5B-9D35-DE48-BD10-E5781F3F2133}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21780" yWindow="12320" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="20920" yWindow="4200" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_14" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Species</t>
   </si>
@@ -83,15 +83,18 @@
   </si>
   <si>
     <t>Bonito, Pacific</t>
+  </si>
+  <si>
+    <t>Total check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -229,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,12 +410,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -577,13 +574,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -939,55 +937,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="2">
         <v>1977</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="2">
         <v>1978</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="2">
         <v>1979</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="2">
         <v>1980</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="2">
         <v>1981</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="2">
         <v>1982</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="2">
         <v>1983</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="2">
         <v>1984</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="2">
         <v>1985</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="2">
         <v>1986</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1022,7 +1021,7 @@
         <v>88118</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>700602</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>340480</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +1126,7 @@
         <v>4386</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>7848</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>25585</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1232,7 +1231,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>605716</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1302,7 +1301,7 @@
         <v>1802017</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1337,7 +1336,7 @@
         <v>88679</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1372,7 +1371,7 @@
         <v>72675</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1407,7 +1406,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1441,7 @@
         <v>36707</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1477,7 +1476,7 @@
         <v>27322</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1512,7 +1511,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1547,7 +1546,7 @@
         <v>73919</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1582,7 +1581,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -1617,7 +1616,7 @@
         <v>152345</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1652,7 +1651,7 @@
         <v>4075121</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -1685,6 +1684,51 @@
       </c>
       <c r="K21" s="4">
         <v>660294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <f>SUM(B2:B19)-B20</f>
+        <v>-360</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" ref="C22:K22" si="0">SUM(C2:C19)-C20</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb173/raw/Table14.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb173/raw/Table14.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb173/pdfs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb173/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AE1AB906-5BB7-7640-8421-A741106516AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E84A889-4B1E-9243-933A-CC85807A6EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21780" yWindow="12320" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_14" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Species</t>
   </si>
@@ -83,15 +93,18 @@
   </si>
   <si>
     <t>Bonito, Pacific</t>
+  </si>
+  <si>
+    <t>Total check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -583,7 +596,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -939,11 +952,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1687,6 +1700,51 @@
         <v>660294</v>
       </c>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <f>SUM(B2:B19)-B20</f>
+        <v>-360</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ref="C22:K22" si="0">SUM(C2:C19)-C20</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
